--- a/RFID Index.xlsx
+++ b/RFID Index.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\OneDrive\שולחן העבודה\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\PycharmProjects\RFID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E3AAB715-BB7A-48F4-B629-7D8E2515873F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7D8E5-2C1A-4564-AB3D-EA28AD6AEAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3072" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>ציוד</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Adult Oxygen Mask</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -723,7 +726,9 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="K5" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>

--- a/RFID Index.xlsx
+++ b/RFID Index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\PycharmProjects\RFID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B7D8E5-2C1A-4564-AB3D-EA28AD6AEAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AF30A2-9509-46FD-83D8-1ED64EFE7868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3072" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>ציוד</t>
   </si>
@@ -174,14 +174,14 @@
     <t>Adult Oxygen Mask</t>
   </si>
   <si>
-    <t>d</t>
+    <t>V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,6 +210,12 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -247,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,11 +291,85 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -503,7 +583,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -580,7 +660,9 @@
         <f>IF(ISBLANK($C2),"",30+(MOD($C2,1000*10) - MOD($C2,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -628,7 +710,9 @@
         <f t="shared" ref="H3:H66" si="3">IF(ISBLANK($C3),"",30+(MOD($C3,1000*10) - MOD($C3,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I3" s="1"/>
+      <c r="I3" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -676,7 +760,9 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -724,11 +810,11 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -774,7 +860,9 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -822,7 +910,9 @@
         <f t="shared" ref="H7:H47" si="7">IF(ISBLANK($C7),"",30+(MOD($C7,1000*10) - MOD($C7,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1100,7 +1190,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1148,7 +1240,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1196,7 +1290,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1244,7 +1340,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1292,7 +1390,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1340,7 +1440,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1903,12 +2005,14 @@
         <v>24</v>
       </c>
       <c r="B31" s="6">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C31" s="6">
         <v>100</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="10">
+        <v>4</v>
+      </c>
       <c r="E31" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -1925,7 +2029,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I31" s="1"/>
+      <c r="I31" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1953,7 +2059,9 @@
       <c r="C32" s="6">
         <v>101</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="10">
+        <v>2</v>
+      </c>
       <c r="E32" s="6">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -1970,7 +2078,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I32" s="1"/>
+      <c r="I32" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -1998,7 +2108,9 @@
       <c r="C33" s="6">
         <v>102</v>
       </c>
-      <c r="D33" s="10"/>
+      <c r="D33" s="10">
+        <v>2</v>
+      </c>
       <c r="E33" s="6">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2015,7 +2127,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I33" s="1"/>
+      <c r="I33" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2034,16 +2148,18 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C34" s="6">
         <v>103</v>
       </c>
-      <c r="D34" s="10"/>
+      <c r="D34" s="10">
+        <v>4</v>
+      </c>
       <c r="E34" s="6">
         <f t="shared" si="4"/>
         <v>33</v>
@@ -2060,7 +2176,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I34" s="1"/>
+      <c r="I34" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -2083,12 +2201,14 @@
         <v>28</v>
       </c>
       <c r="B35" s="6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C35" s="6">
         <v>104</v>
       </c>
-      <c r="D35" s="10"/>
+      <c r="D35" s="10">
+        <v>4</v>
+      </c>
       <c r="E35" s="6">
         <f t="shared" si="4"/>
         <v>34</v>
@@ -2105,7 +2225,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I35" s="1"/>
+      <c r="I35" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -2124,7 +2246,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="6">
@@ -2133,7 +2255,9 @@
       <c r="C36" s="6">
         <v>105</v>
       </c>
-      <c r="D36" s="10"/>
+      <c r="D36" s="10">
+        <v>4</v>
+      </c>
       <c r="E36" s="6">
         <f t="shared" si="4"/>
         <v>35</v>
@@ -2150,7 +2274,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I36" s="1"/>
+      <c r="I36" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
@@ -2169,16 +2295,18 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C37" s="6">
         <v>106</v>
       </c>
-      <c r="D37" s="10"/>
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
       <c r="E37" s="6">
         <f t="shared" si="4"/>
         <v>36</v>
@@ -2195,7 +2323,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I37" s="1"/>
+      <c r="I37" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -2214,16 +2344,18 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C38" s="6">
         <v>107</v>
       </c>
-      <c r="D38" s="10"/>
+      <c r="D38" s="10">
+        <v>2</v>
+      </c>
       <c r="E38" s="6">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -2240,7 +2372,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I38" s="1"/>
+      <c r="I38" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -2268,7 +2402,9 @@
       <c r="C39" s="6">
         <v>108</v>
       </c>
-      <c r="D39" s="10"/>
+      <c r="D39" s="10">
+        <v>2</v>
+      </c>
       <c r="E39" s="6">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -2285,7 +2421,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I39" s="1"/>
+      <c r="I39" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
@@ -2308,12 +2446,14 @@
         <v>33</v>
       </c>
       <c r="B40" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" s="6">
         <v>109</v>
       </c>
-      <c r="D40" s="10"/>
+      <c r="D40" s="10">
+        <v>4</v>
+      </c>
       <c r="E40" s="6">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -2330,7 +2470,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I40" s="1"/>
+      <c r="I40" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
@@ -2353,12 +2495,14 @@
         <v>34</v>
       </c>
       <c r="B41" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" s="6">
         <v>110</v>
       </c>
-      <c r="D41" s="10"/>
+      <c r="D41" s="10">
+        <v>4</v>
+      </c>
       <c r="E41" s="6">
         <f t="shared" si="4"/>
         <v>30</v>
@@ -2375,7 +2519,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
@@ -2403,7 +2549,9 @@
       <c r="C42" s="6">
         <v>111</v>
       </c>
-      <c r="D42" s="10"/>
+      <c r="D42" s="10">
+        <v>4</v>
+      </c>
       <c r="E42" s="6">
         <f t="shared" si="4"/>
         <v>31</v>
@@ -2420,7 +2568,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
@@ -2443,12 +2593,14 @@
         <v>36</v>
       </c>
       <c r="B43" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" s="6">
         <v>112</v>
       </c>
-      <c r="D43" s="10"/>
+      <c r="D43" s="10">
+        <v>4</v>
+      </c>
       <c r="E43" s="6">
         <f t="shared" si="4"/>
         <v>32</v>
@@ -2465,7 +2617,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I43" s="1"/>
+      <c r="I43" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
@@ -11343,7 +11497,12 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="D2:D50">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$B2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RFID Index.xlsx
+++ b/RFID Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\PycharmProjects\RFID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AF30A2-9509-46FD-83D8-1ED64EFE7868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA0A41-506A-487D-BAE4-032A8B5C4347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -285,12 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -300,65 +294,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -583,7 +529,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -606,12 +552,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -660,7 +606,7 @@
         <f>IF(ISBLANK($C2),"",30+(MOD($C2,1000*10) - MOD($C2,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J2" s="1"/>
@@ -710,7 +656,7 @@
         <f t="shared" ref="H3:H66" si="3">IF(ISBLANK($C3),"",30+(MOD($C3,1000*10) - MOD($C3,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J3" s="1"/>
@@ -760,7 +706,7 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J4" s="1"/>
@@ -810,7 +756,7 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J5" s="1"/>
@@ -860,7 +806,7 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J6" s="1"/>
@@ -910,7 +856,7 @@
         <f t="shared" ref="H7:H47" si="7">IF(ISBLANK($C7),"",30+(MOD($C7,1000*10) - MOD($C7,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J7" s="1"/>
@@ -1190,7 +1136,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J13" s="1"/>
@@ -1240,7 +1186,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J14" s="1"/>
@@ -1290,7 +1236,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J15" s="1"/>
@@ -1340,7 +1286,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J16" s="1"/>
@@ -1390,7 +1336,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J17" s="1"/>
@@ -1440,7 +1386,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="13" t="s">
         <v>47</v>
       </c>
       <c r="J18" s="1"/>
@@ -2029,7 +1975,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I31" s="14" t="s">
+      <c r="I31" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K31" s="1"/>
@@ -2078,7 +2024,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I32" s="14" t="s">
+      <c r="I32" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K32" s="1"/>
@@ -2127,7 +2073,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K33" s="1"/>
@@ -2148,7 +2094,7 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="6">
@@ -2176,7 +2122,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K34" s="1"/>
@@ -2225,7 +2171,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I35" s="14" t="s">
+      <c r="I35" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K35" s="1"/>
@@ -2246,7 +2192,7 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="11" t="s">
         <v>29</v>
       </c>
       <c r="B36" s="6">
@@ -2274,7 +2220,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I36" s="14" t="s">
+      <c r="I36" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K36" s="1"/>
@@ -2295,7 +2241,7 @@
       <c r="Z36" s="1"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B37" s="6">
@@ -2323,7 +2269,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K37" s="1"/>
@@ -2344,7 +2290,7 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="6">
@@ -2372,7 +2318,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I38" s="15" t="s">
+      <c r="I38" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K38" s="1"/>
@@ -2421,7 +2367,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I39" s="15" t="s">
+      <c r="I39" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K39" s="1"/>
@@ -2470,7 +2416,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K40" s="1"/>
@@ -2519,7 +2465,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K41" s="1"/>
@@ -2568,7 +2514,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I42" s="15" t="s">
+      <c r="I42" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K42" s="1"/>
@@ -2617,7 +2563,7 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="13" t="s">
         <v>47</v>
       </c>
       <c r="K43" s="1"/>

--- a/RFID Index.xlsx
+++ b/RFID Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\PycharmProjects\RFID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA0A41-506A-487D-BAE4-032A8B5C4347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285CAE44-30E5-4865-950A-576972E25F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>ציוד</t>
   </si>
@@ -176,6 +176,18 @@
   <si>
     <t>V</t>
   </si>
+  <si>
+    <t xml:space="preserve">Cone Syringe (20 cc) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cone Syringe (10 cc) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cone Syringe (5 cc) </t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -298,6 +310,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -879,15 +894,14 @@
     </row>
     <row r="8" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6">
         <v>7</v>
       </c>
-      <c r="D8" s="10"/>
       <c r="E8" s="6">
         <f t="shared" si="4"/>
         <v>37</v>
@@ -904,8 +918,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="J8" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
@@ -925,15 +940,14 @@
     </row>
     <row r="9" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6">
         <v>10</v>
-      </c>
-      <c r="B9" s="6">
-        <v>1</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
       </c>
-      <c r="D9" s="10"/>
       <c r="E9" s="6">
         <f t="shared" si="4"/>
         <v>38</v>
@@ -950,8 +964,9 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
@@ -971,15 +986,14 @@
     </row>
     <row r="10" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
       </c>
-      <c r="D10" s="10"/>
       <c r="E10" s="6">
         <f t="shared" si="4"/>
         <v>39</v>
@@ -996,7 +1010,6 @@
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1016,32 +1029,6 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="7">
-        <v>2</v>
-      </c>
-      <c r="C11" s="7">
-        <v>9</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="7">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="H11" s="7">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1062,32 +1049,6 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7">
-        <v>2</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="7">
-        <f t="shared" si="4"/>
-        <v>30</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="G12" s="7">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1108,37 +1069,33 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>10</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <f t="shared" si="4"/>
+      <c r="A13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>9</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="7">
+        <f>IF(ISBLANK($C13),"",30+(MOD($C13,1*10) - MOD($C13,1))/1)</f>
+        <v>39</v>
+      </c>
+      <c r="F13" s="7">
+        <f>IF(ISBLANK($C13),"",30+(MOD($C13,10*10) - MOD($C13,10))/10)</f>
         <v>30</v>
       </c>
-      <c r="F13" s="6">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="6"/>
+      <c r="G13" s="7">
+        <f>IF(ISBLANK($C13),"",30+(MOD($C13,100*10) - MOD($C13,100))/100)</f>
         <v>30</v>
       </c>
-      <c r="H13" s="6">
-        <f t="shared" si="7"/>
+      <c r="H13" s="7">
+        <f>IF(ISBLANK($C13),"",30+(MOD($C13,1000*10) - MOD($C13,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1158,37 +1115,33 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="6">
-        <v>1</v>
-      </c>
-      <c r="C14" s="6">
-        <v>11</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="6"/>
+      <c r="A14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
+      <c r="C14" s="7">
+        <v>9</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="7">
+        <f>IF(ISBLANK($C14),"",30+(MOD($C14,1*10) - MOD($C14,1))/1)</f>
+        <v>39</v>
+      </c>
+      <c r="F14" s="7">
+        <f>IF(ISBLANK($C14),"",30+(MOD($C14,10*10) - MOD($C14,10))/10)</f>
         <v>30</v>
       </c>
-      <c r="H14" s="6">
-        <f t="shared" si="7"/>
+      <c r="G14" s="7">
+        <f>IF(ISBLANK($C14),"",30+(MOD($C14,100*10) - MOD($C14,100))/100)</f>
         <v>30</v>
       </c>
-      <c r="I14" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="H14" s="7">
+        <f>IF(ISBLANK($C14),"",30+(MOD($C14,1000*10) - MOD($C14,1000))/1000)</f>
+        <v>30</v>
+      </c>
+      <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1208,37 +1161,33 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="6">
-        <v>1</v>
-      </c>
-      <c r="C15" s="6">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="5"/>
+      <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7">
+        <v>2</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7">
+        <f>IF(ISBLANK($C15),"",30+(MOD($C15,1*10) - MOD($C15,1))/1)</f>
+        <v>30</v>
+      </c>
+      <c r="F15" s="7">
+        <f>IF(ISBLANK($C15),"",30+(MOD($C15,10*10) - MOD($C15,10))/10)</f>
         <v>31</v>
       </c>
-      <c r="G15" s="6">
-        <f t="shared" si="6"/>
+      <c r="G15" s="7">
+        <f>IF(ISBLANK($C15),"",30+(MOD($C15,100*10) - MOD($C15,100))/100)</f>
         <v>30</v>
       </c>
-      <c r="H15" s="6">
-        <f t="shared" si="7"/>
+      <c r="H15" s="7">
+        <f>IF(ISBLANK($C15),"",30+(MOD($C15,1000*10) - MOD($C15,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1259,31 +1208,31 @@
     </row>
     <row r="16" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
       </c>
       <c r="C16" s="6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16" s="10">
         <v>1</v>
       </c>
       <c r="E16" s="6">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f>IF(ISBLANK($C16),"",30+(MOD($C16,1*10) - MOD($C16,1))/1)</f>
+        <v>30</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C16),"",30+(MOD($C16,10*10) - MOD($C16,10))/10)</f>
         <v>31</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C16),"",30+(MOD($C16,100*10) - MOD($C16,100))/100)</f>
         <v>30</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C16),"",30+(MOD($C16,1000*10) - MOD($C16,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I16" s="13" t="s">
@@ -1309,31 +1258,31 @@
     </row>
     <row r="17" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D17" s="10">
         <v>1</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f>IF(ISBLANK($C17),"",30+(MOD($C17,1*10) - MOD($C17,1))/1)</f>
+        <v>31</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C17),"",30+(MOD($C17,10*10) - MOD($C17,10))/10)</f>
         <v>31</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C17),"",30+(MOD($C17,100*10) - MOD($C17,100))/100)</f>
         <v>30</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C17),"",30+(MOD($C17,1000*10) - MOD($C17,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I17" s="13" t="s">
@@ -1359,31 +1308,31 @@
     </row>
     <row r="18" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="6">
         <v>1</v>
       </c>
       <c r="C18" s="6">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D18" s="10">
         <v>1</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f>IF(ISBLANK($C18),"",30+(MOD($C18,1*10) - MOD($C18,1))/1)</f>
+        <v>32</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C18),"",30+(MOD($C18,10*10) - MOD($C18,10))/10)</f>
         <v>31</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C18),"",30+(MOD($C18,100*10) - MOD($C18,100))/100)</f>
         <v>30</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C18),"",30+(MOD($C18,1000*10) - MOD($C18,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I18" s="13" t="s">
@@ -1408,33 +1357,37 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="7">
-        <v>2</v>
-      </c>
-      <c r="C19" s="7">
-        <v>14</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="7">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="F19" s="7">
-        <f t="shared" si="5"/>
+      <c r="A19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>13</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <f>IF(ISBLANK($C19),"",30+(MOD($C19,1*10) - MOD($C19,1))/1)</f>
+        <v>33</v>
+      </c>
+      <c r="F19" s="6">
+        <f>IF(ISBLANK($C19),"",30+(MOD($C19,10*10) - MOD($C19,10))/10)</f>
         <v>31</v>
       </c>
-      <c r="G19" s="7">
-        <f t="shared" si="6"/>
+      <c r="G19" s="6">
+        <f>IF(ISBLANK($C19),"",30+(MOD($C19,100*10) - MOD($C19,100))/100)</f>
         <v>30</v>
       </c>
-      <c r="H19" s="7">
-        <f t="shared" si="7"/>
+      <c r="H19" s="6">
+        <f>IF(ISBLANK($C19),"",30+(MOD($C19,1000*10) - MOD($C19,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1455,32 +1408,36 @@
     </row>
     <row r="20" spans="1:26" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="B20" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="6">
-        <v>16</v>
-      </c>
-      <c r="D20" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
       <c r="E20" s="6">
-        <f t="shared" si="4"/>
-        <v>36</v>
+        <f>IF(ISBLANK($C20),"",30+(MOD($C20,1*10) - MOD($C20,1))/1)</f>
+        <v>34</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C20),"",30+(MOD($C20,10*10) - MOD($C20,10))/10)</f>
         <v>31</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C20),"",30+(MOD($C20,100*10) - MOD($C20,100))/100)</f>
         <v>30</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C20),"",30+(MOD($C20,1000*10) - MOD($C20,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1501,32 +1458,36 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="B21" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="6">
-        <v>17</v>
-      </c>
-      <c r="D21" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
       <c r="E21" s="6">
-        <f t="shared" si="4"/>
-        <v>37</v>
+        <f>IF(ISBLANK($C21),"",30+(MOD($C21,1*10) - MOD($C21,1))/1)</f>
+        <v>35</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C21),"",30+(MOD($C21,10*10) - MOD($C21,10))/10)</f>
         <v>31</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C21),"",30+(MOD($C21,100*10) - MOD($C21,100))/100)</f>
         <v>30</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C21),"",30+(MOD($C21,1000*10) - MOD($C21,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I21" s="1"/>
+      <c r="I21" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1546,30 +1507,30 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="7">
         <v>2</v>
       </c>
-      <c r="C22" s="6">
-        <v>18</v>
+      <c r="C22" s="7">
+        <v>14</v>
       </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="6">
-        <f t="shared" si="4"/>
-        <v>38</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="5"/>
+      <c r="E22" s="7">
+        <f>IF(ISBLANK($C22),"",30+(MOD($C22,1*10) - MOD($C22,1))/1)</f>
+        <v>34</v>
+      </c>
+      <c r="F22" s="7">
+        <f>IF(ISBLANK($C22),"",30+(MOD($C22,10*10) - MOD($C22,10))/10)</f>
         <v>31</v>
       </c>
-      <c r="G22" s="6">
-        <f t="shared" si="6"/>
+      <c r="G22" s="7">
+        <f>IF(ISBLANK($C22),"",30+(MOD($C22,100*10) - MOD($C22,100))/100)</f>
         <v>30</v>
       </c>
-      <c r="H22" s="6">
-        <f t="shared" si="7"/>
+      <c r="H22" s="7">
+        <f>IF(ISBLANK($C22),"",30+(MOD($C22,1000*10) - MOD($C22,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I22" s="1"/>
@@ -1592,30 +1553,30 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="7">
         <v>2</v>
       </c>
-      <c r="C23" s="6">
-        <v>19</v>
-      </c>
-      <c r="D23" s="10"/>
-      <c r="E23" s="6">
-        <f t="shared" si="4"/>
-        <v>39</v>
-      </c>
-      <c r="F23" s="6">
-        <f t="shared" si="5"/>
+      <c r="C23" s="7">
+        <v>16</v>
+      </c>
+      <c r="D23" s="16"/>
+      <c r="E23" s="7">
+        <f>IF(ISBLANK($C23),"",30+(MOD($C23,1*10) - MOD($C23,1))/1)</f>
+        <v>36</v>
+      </c>
+      <c r="F23" s="7">
+        <f>IF(ISBLANK($C23),"",30+(MOD($C23,10*10) - MOD($C23,10))/10)</f>
         <v>31</v>
       </c>
-      <c r="G23" s="6">
-        <f t="shared" si="6"/>
+      <c r="G23" s="7">
+        <f>IF(ISBLANK($C23),"",30+(MOD($C23,100*10) - MOD($C23,100))/100)</f>
         <v>30</v>
       </c>
-      <c r="H23" s="6">
-        <f t="shared" si="7"/>
+      <c r="H23" s="7">
+        <f>IF(ISBLANK($C23),"",30+(MOD($C23,1000*10) - MOD($C23,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I23" s="1"/>
@@ -1639,29 +1600,29 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="6">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="6">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($C24),"",30+(MOD($C24,1*10) - MOD($C24,1))/1)</f>
+        <v>37</v>
+      </c>
+      <c r="F24" s="6">
+        <f>IF(ISBLANK($C24),"",30+(MOD($C24,10*10) - MOD($C24,10))/10)</f>
+        <v>31</v>
+      </c>
+      <c r="G24" s="6">
+        <f>IF(ISBLANK($C24),"",30+(MOD($C24,100*10) - MOD($C24,100))/100)</f>
         <v>30</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="6"/>
-        <v>30</v>
-      </c>
       <c r="H24" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C24),"",30+(MOD($C24,1000*10) - MOD($C24,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I24" s="1"/>
@@ -1685,29 +1646,29 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B25" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C25" s="6">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="6">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($C25),"",30+(MOD($C25,1*10) - MOD($C25,1))/1)</f>
+        <v>38</v>
+      </c>
+      <c r="F25" s="6">
+        <f>IF(ISBLANK($C25),"",30+(MOD($C25,10*10) - MOD($C25,10))/10)</f>
         <v>31</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
       <c r="G25" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C25),"",30+(MOD($C25,100*10) - MOD($C25,100))/100)</f>
         <v>30</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C25),"",30+(MOD($C25,1000*10) - MOD($C25,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I25" s="1"/>
@@ -1731,29 +1692,29 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B26" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D26" s="10"/>
       <c r="E26" s="6">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <f>IF(ISBLANK($C26),"",30+(MOD($C26,1*10) - MOD($C26,1))/1)</f>
+        <v>39</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f>IF(ISBLANK($C26),"",30+(MOD($C26,10*10) - MOD($C26,10))/10)</f>
+        <v>31</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C26),"",30+(MOD($C26,100*10) - MOD($C26,100))/100)</f>
         <v>30</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C26),"",30+(MOD($C26,1000*10) - MOD($C26,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I26" s="1"/>
@@ -1777,32 +1738,36 @@
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27" s="6">
-        <v>23</v>
-      </c>
-      <c r="D27" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
       <c r="E27" s="6">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f>IF(ISBLANK($C27),"",30+(MOD($C27,1*10) - MOD($C27,1))/1)</f>
+        <v>30</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C27),"",30+(MOD($C27,10*10) - MOD($C27,10))/10)</f>
         <v>32</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C27),"",30+(MOD($C27,100*10) - MOD($C27,100))/100)</f>
         <v>30</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C27),"",30+(MOD($C27,1000*10) - MOD($C27,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1822,30 +1787,30 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="5">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6">
-        <v>24</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="6">
-        <f t="shared" si="4"/>
-        <v>34</v>
-      </c>
-      <c r="F28" s="6">
-        <f t="shared" si="5"/>
+      <c r="A28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="7">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7">
+        <v>21</v>
+      </c>
+      <c r="D28" s="16"/>
+      <c r="E28" s="7">
+        <f>IF(ISBLANK($C28),"",30+(MOD($C28,1*10) - MOD($C28,1))/1)</f>
+        <v>31</v>
+      </c>
+      <c r="F28" s="7">
+        <f>IF(ISBLANK($C28),"",30+(MOD($C28,10*10) - MOD($C28,10))/10)</f>
         <v>32</v>
       </c>
-      <c r="G28" s="6">
-        <f t="shared" si="6"/>
+      <c r="G28" s="7">
+        <f>IF(ISBLANK($C28),"",30+(MOD($C28,100*10) - MOD($C28,100))/100)</f>
         <v>30</v>
       </c>
-      <c r="H28" s="6">
-        <f t="shared" si="7"/>
+      <c r="H28" s="7">
+        <f>IF(ISBLANK($C28),"",30+(MOD($C28,1000*10) - MOD($C28,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I28" s="1"/>
@@ -1868,25 +1833,31 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F29" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G29" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H29" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="A29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="7">
+        <v>2</v>
+      </c>
+      <c r="C29" s="7">
+        <v>22</v>
+      </c>
+      <c r="D29" s="16"/>
+      <c r="E29" s="7">
+        <f>IF(ISBLANK($C29),"",30+(MOD($C29,1*10) - MOD($C29,1))/1)</f>
+        <v>32</v>
+      </c>
+      <c r="F29" s="7">
+        <f>IF(ISBLANK($C29),"",30+(MOD($C29,10*10) - MOD($C29,10))/10)</f>
+        <v>32</v>
+      </c>
+      <c r="G29" s="7">
+        <f>IF(ISBLANK($C29),"",30+(MOD($C29,100*10) - MOD($C29,100))/100)</f>
+        <v>30</v>
+      </c>
+      <c r="H29" s="7">
+        <f>IF(ISBLANK($C29),"",30+(MOD($C29,1000*10) - MOD($C29,1000))/1000)</f>
+        <v>30</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1908,25 +1879,31 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="A30" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="6">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6">
+        <v>23</v>
+      </c>
       <c r="D30" s="10"/>
-      <c r="E30" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F30" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G30" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H30" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E30" s="6">
+        <f>IF(ISBLANK($C30),"",30+(MOD($C30,1*10) - MOD($C30,1))/1)</f>
+        <v>33</v>
+      </c>
+      <c r="F30" s="6">
+        <f>IF(ISBLANK($C30),"",30+(MOD($C30,10*10) - MOD($C30,10))/10)</f>
+        <v>32</v>
+      </c>
+      <c r="G30" s="6">
+        <f>IF(ISBLANK($C30),"",30+(MOD($C30,100*10) - MOD($C30,100))/100)</f>
+        <v>30</v>
+      </c>
+      <c r="H30" s="6">
+        <f>IF(ISBLANK($C30),"",30+(MOD($C30,1000*10) - MOD($C30,1000))/1000)</f>
+        <v>30</v>
       </c>
       <c r="I30" s="1"/>
       <c r="K30" s="1"/>
@@ -1947,37 +1924,33 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="5">
+        <v>2</v>
+      </c>
+      <c r="C31" s="6">
         <v>24</v>
       </c>
-      <c r="B31" s="6">
-        <v>4</v>
-      </c>
-      <c r="C31" s="6">
-        <v>100</v>
-      </c>
-      <c r="D31" s="10">
-        <v>4</v>
-      </c>
+      <c r="D31" s="10"/>
       <c r="E31" s="6">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($C31),"",30+(MOD($C31,1*10) - MOD($C31,1))/1)</f>
+        <v>34</v>
+      </c>
+      <c r="F31" s="6">
+        <f>IF(ISBLANK($C31),"",30+(MOD($C31,10*10) - MOD($C31,10))/10)</f>
+        <v>32</v>
+      </c>
+      <c r="G31" s="6">
+        <f>IF(ISBLANK($C31),"",30+(MOD($C31,100*10) - MOD($C31,100))/100)</f>
         <v>30</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="5"/>
+      <c r="H31" s="6">
+        <f>IF(ISBLANK($C31),"",30+(MOD($C31,1000*10) - MOD($C31,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="G31" s="6">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="H31" s="6">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="I31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -1996,37 +1969,27 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="6">
-        <v>2</v>
-      </c>
-      <c r="C32" s="6">
-        <v>101</v>
-      </c>
-      <c r="D32" s="10">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6">
-        <f t="shared" si="4"/>
-        <v>31</v>
-      </c>
-      <c r="F32" s="6">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="G32" s="6">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="H32" s="6">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="I32" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="6" t="str">
+        <f>IF(ISBLANK($C32),"",30+(MOD($C32,1*10) - MOD($C32,1))/1)</f>
+        <v/>
+      </c>
+      <c r="F32" s="6" t="str">
+        <f>IF(ISBLANK($C32),"",30+(MOD($C32,10*10) - MOD($C32,10))/10)</f>
+        <v/>
+      </c>
+      <c r="G32" s="6" t="str">
+        <f>IF(ISBLANK($C32),"",30+(MOD($C32,100*10) - MOD($C32,100))/100)</f>
+        <v/>
+      </c>
+      <c r="H32" s="6" t="str">
+        <f>IF(ISBLANK($C32),"",30+(MOD($C32,1000*10) - MOD($C32,1000))/1000)</f>
+        <v/>
+      </c>
+      <c r="I32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
@@ -2045,37 +2008,27 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="6">
-        <v>2</v>
-      </c>
-      <c r="C33" s="6">
-        <v>102</v>
-      </c>
-      <c r="D33" s="10">
-        <v>2</v>
-      </c>
-      <c r="E33" s="6">
-        <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="F33" s="6">
-        <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="G33" s="6">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="H33" s="6">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="I33" s="12" t="s">
-        <v>47</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="6" t="str">
+        <f>IF(ISBLANK($C33),"",30+(MOD($C33,1*10) - MOD($C33,1))/1)</f>
+        <v/>
+      </c>
+      <c r="F33" s="6" t="str">
+        <f>IF(ISBLANK($C33),"",30+(MOD($C33,10*10) - MOD($C33,10))/10)</f>
+        <v/>
+      </c>
+      <c r="G33" s="6" t="str">
+        <f>IF(ISBLANK($C33),"",30+(MOD($C33,100*10) - MOD($C33,100))/100)</f>
+        <v/>
+      </c>
+      <c r="H33" s="6" t="str">
+        <f>IF(ISBLANK($C33),"",30+(MOD($C33,1000*10) - MOD($C33,1000))/1000)</f>
+        <v/>
+      </c>
+      <c r="I33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -2094,32 +2047,32 @@
       <c r="Z33" s="1"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>27</v>
+      <c r="A34" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="B34" s="6">
         <v>4</v>
       </c>
       <c r="C34" s="6">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D34" s="10">
         <v>4</v>
       </c>
       <c r="E34" s="6">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f>IF(ISBLANK($C34),"",30+(MOD($C34,1*10) - MOD($C34,1))/1)</f>
+        <v>30</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C34),"",30+(MOD($C34,10*10) - MOD($C34,10))/10)</f>
         <v>30</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C34),"",30+(MOD($C34,100*10) - MOD($C34,100))/100)</f>
         <v>31</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C34),"",30+(MOD($C34,1000*10) - MOD($C34,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I34" s="12" t="s">
@@ -2144,31 +2097,31 @@
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B35" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="6">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D35" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" s="6">
-        <f t="shared" si="4"/>
-        <v>34</v>
+        <f>IF(ISBLANK($C35),"",30+(MOD($C35,1*10) - MOD($C35,1))/1)</f>
+        <v>31</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C35),"",30+(MOD($C35,10*10) - MOD($C35,10))/10)</f>
         <v>30</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C35),"",30+(MOD($C35,100*10) - MOD($C35,100))/100)</f>
         <v>31</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C35),"",30+(MOD($C35,1000*10) - MOD($C35,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I35" s="12" t="s">
@@ -2192,32 +2145,32 @@
       <c r="Z35" s="1"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>29</v>
+      <c r="A36" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="B36" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="6">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D36" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" s="6">
-        <f t="shared" si="4"/>
-        <v>35</v>
+        <f>IF(ISBLANK($C36),"",30+(MOD($C36,1*10) - MOD($C36,1))/1)</f>
+        <v>32</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C36),"",30+(MOD($C36,10*10) - MOD($C36,10))/10)</f>
         <v>30</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C36),"",30+(MOD($C36,100*10) - MOD($C36,100))/100)</f>
         <v>31</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C36),"",30+(MOD($C36,1000*10) - MOD($C36,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I36" s="12" t="s">
@@ -2242,34 +2195,34 @@
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="6">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6">
+        <v>103</v>
+      </c>
+      <c r="D37" s="10">
+        <v>4</v>
+      </c>
+      <c r="E37" s="6">
+        <f>IF(ISBLANK($C37),"",30+(MOD($C37,1*10) - MOD($C37,1))/1)</f>
+        <v>33</v>
+      </c>
+      <c r="F37" s="6">
+        <f>IF(ISBLANK($C37),"",30+(MOD($C37,10*10) - MOD($C37,10))/10)</f>
         <v>30</v>
       </c>
-      <c r="B37" s="6">
-        <v>2</v>
-      </c>
-      <c r="C37" s="6">
-        <v>106</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2</v>
-      </c>
-      <c r="E37" s="6">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="F37" s="6">
-        <f t="shared" si="5"/>
+      <c r="G37" s="6">
+        <f>IF(ISBLANK($C37),"",30+(MOD($C37,100*10) - MOD($C37,100))/100)</f>
+        <v>31</v>
+      </c>
+      <c r="H37" s="6">
+        <f>IF(ISBLANK($C37),"",30+(MOD($C37,1000*10) - MOD($C37,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="G37" s="6">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="H37" s="6">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="I37" s="13" t="s">
+      <c r="I37" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K37" s="1"/>
@@ -2290,35 +2243,35 @@
       <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
+      <c r="C38" s="6">
+        <v>104</v>
+      </c>
+      <c r="D38" s="10">
+        <v>4</v>
+      </c>
+      <c r="E38" s="6">
+        <f>IF(ISBLANK($C38),"",30+(MOD($C38,1*10) - MOD($C38,1))/1)</f>
+        <v>34</v>
+      </c>
+      <c r="F38" s="6">
+        <f>IF(ISBLANK($C38),"",30+(MOD($C38,10*10) - MOD($C38,10))/10)</f>
+        <v>30</v>
+      </c>
+      <c r="G38" s="6">
+        <f>IF(ISBLANK($C38),"",30+(MOD($C38,100*10) - MOD($C38,100))/100)</f>
         <v>31</v>
       </c>
-      <c r="B38" s="6">
-        <v>2</v>
-      </c>
-      <c r="C38" s="6">
-        <v>107</v>
-      </c>
-      <c r="D38" s="10">
-        <v>2</v>
-      </c>
-      <c r="E38" s="6">
-        <f t="shared" si="4"/>
-        <v>37</v>
-      </c>
-      <c r="F38" s="6">
-        <f t="shared" si="5"/>
+      <c r="H38" s="6">
+        <f>IF(ISBLANK($C38),"",30+(MOD($C38,1000*10) - MOD($C38,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="G38" s="6">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
-      <c r="H38" s="6">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K38" s="1"/>
@@ -2339,35 +2292,35 @@
       <c r="Z38" s="1"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>32</v>
+      <c r="A39" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="B39" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C39" s="6">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D39" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" s="6">
-        <f t="shared" si="4"/>
-        <v>38</v>
+        <f>IF(ISBLANK($C39),"",30+(MOD($C39,1*10) - MOD($C39,1))/1)</f>
+        <v>35</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C39),"",30+(MOD($C39,10*10) - MOD($C39,10))/10)</f>
         <v>30</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C39),"",30+(MOD($C39,100*10) - MOD($C39,100))/100)</f>
         <v>31</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C39),"",30+(MOD($C39,1000*10) - MOD($C39,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="12" t="s">
         <v>47</v>
       </c>
       <c r="K39" s="1"/>
@@ -2388,32 +2341,32 @@
       <c r="Z39" s="1"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>33</v>
+      <c r="A40" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="B40" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C40" s="6">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D40" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" s="6">
-        <f t="shared" si="4"/>
-        <v>39</v>
+        <f>IF(ISBLANK($C40),"",30+(MOD($C40,1*10) - MOD($C40,1))/1)</f>
+        <v>36</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C40),"",30+(MOD($C40,10*10) - MOD($C40,10))/10)</f>
         <v>30</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C40),"",30+(MOD($C40,100*10) - MOD($C40,100))/100)</f>
         <v>31</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C40),"",30+(MOD($C40,1000*10) - MOD($C40,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I40" s="13" t="s">
@@ -2437,32 +2390,32 @@
       <c r="Z40" s="1"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>34</v>
+      <c r="A41" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="B41" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C41" s="6">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D41" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E41" s="6">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($C41),"",30+(MOD($C41,1*10) - MOD($C41,1))/1)</f>
+        <v>37</v>
+      </c>
+      <c r="F41" s="6">
+        <f>IF(ISBLANK($C41),"",30+(MOD($C41,10*10) - MOD($C41,10))/10)</f>
         <v>30</v>
       </c>
-      <c r="F41" s="6">
-        <f t="shared" si="5"/>
+      <c r="G41" s="6">
+        <f>IF(ISBLANK($C41),"",30+(MOD($C41,100*10) - MOD($C41,100))/100)</f>
         <v>31</v>
       </c>
-      <c r="G41" s="6">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
       <c r="H41" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C41),"",30+(MOD($C41,1000*10) - MOD($C41,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I41" s="13" t="s">
@@ -2487,31 +2440,31 @@
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B42" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C42" s="6">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D42" s="10">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E42" s="6">
-        <f t="shared" si="4"/>
+        <f>IF(ISBLANK($C42),"",30+(MOD($C42,1*10) - MOD($C42,1))/1)</f>
+        <v>38</v>
+      </c>
+      <c r="F42" s="6">
+        <f>IF(ISBLANK($C42),"",30+(MOD($C42,10*10) - MOD($C42,10))/10)</f>
+        <v>30</v>
+      </c>
+      <c r="G42" s="6">
+        <f>IF(ISBLANK($C42),"",30+(MOD($C42,100*10) - MOD($C42,100))/100)</f>
         <v>31</v>
       </c>
-      <c r="F42" s="6">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="G42" s="6">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
       <c r="H42" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C42),"",30+(MOD($C42,1000*10) - MOD($C42,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I42" s="13" t="s">
@@ -2536,31 +2489,31 @@
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B43" s="6">
         <v>4</v>
       </c>
       <c r="C43" s="6">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D43" s="10">
         <v>4</v>
       </c>
       <c r="E43" s="6">
-        <f t="shared" si="4"/>
-        <v>32</v>
+        <f>IF(ISBLANK($C43),"",30+(MOD($C43,1*10) - MOD($C43,1))/1)</f>
+        <v>39</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C43),"",30+(MOD($C43,10*10) - MOD($C43,10))/10)</f>
+        <v>30</v>
+      </c>
+      <c r="G43" s="6">
+        <f>IF(ISBLANK($C43),"",30+(MOD($C43,100*10) - MOD($C43,100))/100)</f>
         <v>31</v>
       </c>
-      <c r="G43" s="6">
-        <f t="shared" si="6"/>
-        <v>31</v>
-      </c>
       <c r="H43" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C43),"",30+(MOD($C43,1000*10) - MOD($C43,1000))/1000)</f>
         <v>30</v>
       </c>
       <c r="I43" s="13" t="s">
@@ -2584,33 +2537,37 @@
       <c r="Z43" s="1"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="5">
-        <v>1</v>
-      </c>
-      <c r="C44" s="5">
-        <v>113</v>
-      </c>
-      <c r="D44" s="10"/>
+      <c r="A44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6">
+        <v>4</v>
+      </c>
+      <c r="C44" s="6">
+        <v>110</v>
+      </c>
+      <c r="D44" s="10">
+        <v>4</v>
+      </c>
       <c r="E44" s="6">
-        <f t="shared" si="4"/>
-        <v>33</v>
+        <f>IF(ISBLANK($C44),"",30+(MOD($C44,1*10) - MOD($C44,1))/1)</f>
+        <v>30</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="5"/>
+        <f>IF(ISBLANK($C44),"",30+(MOD($C44,10*10) - MOD($C44,10))/10)</f>
         <v>31</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="6"/>
+        <f>IF(ISBLANK($C44),"",30+(MOD($C44,100*10) - MOD($C44,100))/100)</f>
         <v>31</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="7"/>
+        <f>IF(ISBLANK($C44),"",30+(MOD($C44,1000*10) - MOD($C44,1000))/1000)</f>
         <v>30</v>
       </c>
-      <c r="I44" s="1"/>
+      <c r="I44" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2629,31 +2586,37 @@
       <c r="Z44" s="1"/>
     </row>
     <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45" s="10">
-        <v>1</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F45" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G45" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H45" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I45" s="1"/>
+      <c r="A45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="6">
+        <v>4</v>
+      </c>
+      <c r="C45" s="6">
+        <v>111</v>
+      </c>
+      <c r="D45" s="10">
+        <v>4</v>
+      </c>
+      <c r="E45" s="6">
+        <f>IF(ISBLANK($C45),"",30+(MOD($C45,1*10) - MOD($C45,1))/1)</f>
+        <v>31</v>
+      </c>
+      <c r="F45" s="6">
+        <f>IF(ISBLANK($C45),"",30+(MOD($C45,10*10) - MOD($C45,10))/10)</f>
+        <v>31</v>
+      </c>
+      <c r="G45" s="6">
+        <f>IF(ISBLANK($C45),"",30+(MOD($C45,100*10) - MOD($C45,100))/100)</f>
+        <v>31</v>
+      </c>
+      <c r="H45" s="6">
+        <f>IF(ISBLANK($C45),"",30+(MOD($C45,1000*10) - MOD($C45,1000))/1000)</f>
+        <v>30</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2674,30 +2637,36 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B46" s="10">
-        <v>1</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F46" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G46" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H46" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I46" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="B46" s="6">
+        <v>4</v>
+      </c>
+      <c r="C46" s="6">
+        <v>112</v>
+      </c>
+      <c r="D46" s="10">
+        <v>4</v>
+      </c>
+      <c r="E46" s="6">
+        <f>IF(ISBLANK($C46),"",30+(MOD($C46,1*10) - MOD($C46,1))/1)</f>
+        <v>32</v>
+      </c>
+      <c r="F46" s="6">
+        <f>IF(ISBLANK($C46),"",30+(MOD($C46,10*10) - MOD($C46,10))/10)</f>
+        <v>31</v>
+      </c>
+      <c r="G46" s="6">
+        <f>IF(ISBLANK($C46),"",30+(MOD($C46,100*10) - MOD($C46,100))/100)</f>
+        <v>31</v>
+      </c>
+      <c r="H46" s="6">
+        <f>IF(ISBLANK($C46),"",30+(MOD($C46,1000*10) - MOD($C46,1000))/1000)</f>
+        <v>30</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2717,25 +2686,31 @@
       <c r="Z46" s="1"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+      <c r="A47" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
+        <v>113</v>
+      </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="F47" s="6" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G47" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="H47" s="6" t="str">
-        <f t="shared" si="7"/>
-        <v/>
+      <c r="E47" s="6">
+        <f>IF(ISBLANK($C47),"",30+(MOD($C47,1*10) - MOD($C47,1))/1)</f>
+        <v>33</v>
+      </c>
+      <c r="F47" s="6">
+        <f>IF(ISBLANK($C47),"",30+(MOD($C47,10*10) - MOD($C47,10))/10)</f>
+        <v>31</v>
+      </c>
+      <c r="G47" s="6">
+        <f>IF(ISBLANK($C47),"",30+(MOD($C47,100*10) - MOD($C47,100))/100)</f>
+        <v>31</v>
+      </c>
+      <c r="H47" s="6">
+        <f>IF(ISBLANK($C47),"",30+(MOD($C47,1000*10) - MOD($C47,1000))/1000)</f>
+        <v>30</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2757,24 +2732,28 @@
       <c r="Z47" s="1"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
+      <c r="A48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="10">
+        <v>1</v>
+      </c>
       <c r="C48" s="6"/>
       <c r="D48" s="10"/>
       <c r="E48" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($C48),"",30+(MOD($C48,1*10) - MOD($C48,1))/1)</f>
         <v/>
       </c>
       <c r="F48" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK($C48),"",30+(MOD($C48,10*10) - MOD($C48,10))/10)</f>
         <v/>
       </c>
       <c r="G48" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK($C48),"",30+(MOD($C48,100*10) - MOD($C48,100))/100)</f>
         <v/>
       </c>
       <c r="H48" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C48),"",30+(MOD($C48,1000*10) - MOD($C48,1000))/1000)</f>
         <v/>
       </c>
       <c r="I48" s="1"/>
@@ -2797,24 +2776,28 @@
       <c r="Z48" s="1"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
+      <c r="A49" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="10">
+        <v>1</v>
+      </c>
       <c r="C49" s="6"/>
       <c r="D49" s="10"/>
       <c r="E49" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($C49),"",30+(MOD($C49,1*10) - MOD($C49,1))/1)</f>
         <v/>
       </c>
       <c r="F49" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK($C49),"",30+(MOD($C49,10*10) - MOD($C49,10))/10)</f>
         <v/>
       </c>
       <c r="G49" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK($C49),"",30+(MOD($C49,100*10) - MOD($C49,100))/100)</f>
         <v/>
       </c>
       <c r="H49" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C49),"",30+(MOD($C49,1000*10) - MOD($C49,1000))/1000)</f>
         <v/>
       </c>
       <c r="I49" s="1"/>
@@ -2837,25 +2820,31 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+      <c r="A50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="6">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6">
+        <v>7</v>
+      </c>
       <c r="D50" s="10"/>
-      <c r="E50" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F50" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G50" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H50" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E50" s="6">
+        <f>IF(ISBLANK($C50),"",30+(MOD($C50,1*10) - MOD($C50,1))/1)</f>
+        <v>37</v>
+      </c>
+      <c r="F50" s="6">
+        <f>IF(ISBLANK($C50),"",30+(MOD($C50,10*10) - MOD($C50,10))/10)</f>
+        <v>30</v>
+      </c>
+      <c r="G50" s="6">
+        <f>IF(ISBLANK($C50),"",30+(MOD($C50,100*10) - MOD($C50,100))/100)</f>
+        <v>30</v>
+      </c>
+      <c r="H50" s="6">
+        <f>IF(ISBLANK($C50),"",30+(MOD($C50,1000*10) - MOD($C50,1000))/1000)</f>
+        <v>30</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -2877,25 +2866,31 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+      <c r="A51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="6">
+        <v>1</v>
+      </c>
+      <c r="C51" s="6">
+        <v>8</v>
+      </c>
       <c r="D51" s="10"/>
-      <c r="E51" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F51" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G51" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H51" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
+      <c r="E51" s="6">
+        <f>IF(ISBLANK($C51),"",30+(MOD($C51,1*10) - MOD($C51,1))/1)</f>
+        <v>38</v>
+      </c>
+      <c r="F51" s="6">
+        <f>IF(ISBLANK($C51),"",30+(MOD($C51,10*10) - MOD($C51,10))/10)</f>
+        <v>30</v>
+      </c>
+      <c r="G51" s="6">
+        <f>IF(ISBLANK($C51),"",30+(MOD($C51,100*10) - MOD($C51,100))/100)</f>
+        <v>30</v>
+      </c>
+      <c r="H51" s="6">
+        <f>IF(ISBLANK($C51),"",30+(MOD($C51,1000*10) - MOD($C51,1000))/1000)</f>
+        <v>30</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -2922,19 +2917,19 @@
       <c r="C52" s="6"/>
       <c r="D52" s="10"/>
       <c r="E52" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($C52),"",30+(MOD($C52,1*10) - MOD($C52,1))/1)</f>
         <v/>
       </c>
       <c r="F52" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK($C52),"",30+(MOD($C52,10*10) - MOD($C52,10))/10)</f>
         <v/>
       </c>
       <c r="G52" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK($C52),"",30+(MOD($C52,100*10) - MOD($C52,100))/100)</f>
         <v/>
       </c>
       <c r="H52" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C52),"",30+(MOD($C52,1000*10) - MOD($C52,1000))/1000)</f>
         <v/>
       </c>
       <c r="I52" s="1"/>
@@ -2962,19 +2957,19 @@
       <c r="C53" s="6"/>
       <c r="D53" s="10"/>
       <c r="E53" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($C53),"",30+(MOD($C53,1*10) - MOD($C53,1))/1)</f>
         <v/>
       </c>
       <c r="F53" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK($C53),"",30+(MOD($C53,10*10) - MOD($C53,10))/10)</f>
         <v/>
       </c>
       <c r="G53" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK($C53),"",30+(MOD($C53,100*10) - MOD($C53,100))/100)</f>
         <v/>
       </c>
       <c r="H53" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C53),"",30+(MOD($C53,1000*10) - MOD($C53,1000))/1000)</f>
         <v/>
       </c>
       <c r="I53" s="1"/>
@@ -3002,19 +2997,19 @@
       <c r="C54" s="6"/>
       <c r="D54" s="10"/>
       <c r="E54" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK($C54),"",30+(MOD($C54,1*10) - MOD($C54,1))/1)</f>
         <v/>
       </c>
       <c r="F54" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(ISBLANK($C54),"",30+(MOD($C54,10*10) - MOD($C54,10))/10)</f>
         <v/>
       </c>
       <c r="G54" s="6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(ISBLANK($C54),"",30+(MOD($C54,100*10) - MOD($C54,100))/100)</f>
         <v/>
       </c>
       <c r="H54" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(ISBLANK($C54),"",30+(MOD($C54,1000*10) - MOD($C54,1000))/1000)</f>
         <v/>
       </c>
       <c r="I54" s="1"/>
@@ -11443,7 +11438,7 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
-  <conditionalFormatting sqref="D2:D50">
+  <conditionalFormatting sqref="D2:D7 D13:D53">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>$B2</formula>
     </cfRule>

--- a/RFID Index.xlsx
+++ b/RFID Index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\PycharmProjects\RFID\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E415EC6-AF1D-464C-8745-8FAA6E1EEF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1D6A1-10D8-48DC-B11F-93AD13DE0659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>ציוד</t>
   </si>
@@ -199,6 +199,12 @@
   </si>
   <si>
     <t>71, 72</t>
+  </si>
+  <si>
+    <t>81,..85</t>
+  </si>
+  <si>
+    <t>91,…95</t>
   </si>
 </sst>
 </file>
@@ -696,7 +702,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="119" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1138,7 +1144,9 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -1188,7 +1196,9 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -1999,7 +2009,7 @@
         <v>21</v>
       </c>
       <c r="D27" s="30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="8"/>
@@ -2018,9 +2028,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="12"/>
-      <c r="J27" s="1">
-        <v>2</v>
-      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="2"/>
